--- a/municipal/ENG/Education/General Educational Institution/Imereti/C. Kutaisi.xlsx
+++ b/municipal/ENG/Education/General Educational Institution/Imereti/C. Kutaisi.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Social Statistic\General Educational Institution\Imereti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\საბოლოო მაჩვენებლები\სოციალური ქარ. EN\Social Statistic\General Educational Institution\Imereti\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>─</t>
-  </si>
-  <si>
-    <t>Public and Private General Education Schools in Kutaisi</t>
   </si>
   <si>
     <t>(At the beginning of the school year)</t>
@@ -103,6 +100,9 @@
       <t xml:space="preserve"> Ministry of Education and Science of Georgia.
 </t>
     </r>
+  </si>
+  <si>
+    <t>Public and Private General Education Schools in Kutaisi municipality</t>
   </si>
 </sst>
 </file>
@@ -280,7 +280,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -564,9 +564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -578,7 +576,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -608,7 +606,7 @@
     </row>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -690,7 +688,7 @@
     </row>
     <row r="4" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="7">
         <v>61</v>
@@ -744,7 +742,7 @@
     </row>
     <row r="5" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="8">
         <v>27557</v>
@@ -798,7 +796,7 @@
     </row>
     <row r="6" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>12</v>
@@ -852,7 +850,7 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -874,7 +872,7 @@
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
@@ -910,11 +908,10 @@
       <c r="Z9" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/municipal/ENG/Education/General Educational Institution/Imereti/C. Kutaisi.xlsx
+++ b/municipal/ENG/Education/General Educational Institution/Imereti/C. Kutaisi.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\General Educational Institution\Imereti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\General Educational Institution\Imereti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90659A4-AAE7-4C01-9E97-14958CFBBFBB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6FAF43-6A53-4E96-B8F0-A662E24BB501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="585" windowWidth="9255" windowHeight="13830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C. Kutaisi" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>Public and Private General Education Schools in Kutaisi municipality</t>
   </si>
@@ -125,14 +125,20 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>number of graduates of the primary level (persons)</t>
+  </si>
+  <si>
+    <t>number of graduates of the basic level (persons)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="#\ ##0"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -168,23 +174,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -205,8 +194,25 @@
       <name val="Arial"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +223,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
   </fills>
@@ -272,53 +290,59 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -594,7 +618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R14"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -625,518 +649,802 @@
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
     </row>
     <row r="3" spans="1:18" ht="21" customHeight="1">
       <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="21" t="s">
+      <c r="K3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="21" t="s">
+      <c r="L3" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="21" t="s">
+      <c r="M3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="21" t="s">
+      <c r="N3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="21" t="s">
+      <c r="O3" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="21" customHeight="1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="11">
         <v>61</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="11">
         <v>54</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="11">
         <v>56</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="11">
         <v>56</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="11">
         <v>55</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="11">
         <v>54</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="11">
         <v>52</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="11">
         <v>49</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="11">
         <v>49</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="11">
         <v>50</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="11">
         <v>50</v>
       </c>
-      <c r="M4" s="9">
+      <c r="M4" s="11">
         <v>50</v>
       </c>
-      <c r="N4" s="9">
+      <c r="N4" s="11">
         <v>49</v>
       </c>
-      <c r="O4" s="9">
+      <c r="O4" s="11">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:18" ht="21" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="12">
         <v>27557</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="12">
         <v>26769</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="12">
         <v>26535</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="12">
         <v>26308</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="12">
         <v>26644</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="12">
         <v>27070</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="12">
         <v>28039</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="12">
         <v>29155</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="12">
         <v>29962</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="12">
         <v>30544</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="12">
         <v>31564</v>
       </c>
-      <c r="M5" s="11">
+      <c r="M5" s="12">
         <v>32581</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="12">
         <v>33203</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="12">
         <v>33612</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="30">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:18" ht="26.25">
+      <c r="A6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2122</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1923</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2114</v>
+      </c>
+      <c r="F6" s="23">
+        <v>2001</v>
+      </c>
+      <c r="G6" s="24">
+        <v>2532</v>
+      </c>
+      <c r="H6" s="17">
+        <v>2498</v>
+      </c>
+      <c r="I6" s="17">
+        <v>2290</v>
+      </c>
+      <c r="J6" s="23">
+        <v>2193</v>
+      </c>
+      <c r="K6" s="23">
+        <v>2472</v>
+      </c>
+      <c r="L6" s="24">
+        <v>2515</v>
+      </c>
+      <c r="M6" s="24">
+        <v>3170</v>
+      </c>
+      <c r="N6" s="12">
+        <f>N7+N8</f>
+        <v>2991</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="12">
+        <v>967</v>
+      </c>
+      <c r="D7" s="12">
+        <v>948</v>
+      </c>
+      <c r="E7" s="12">
+        <v>995</v>
+      </c>
+      <c r="F7" s="17">
+        <v>911</v>
+      </c>
+      <c r="G7" s="17">
+        <v>1229</v>
+      </c>
+      <c r="H7" s="17">
+        <v>1184</v>
+      </c>
+      <c r="I7" s="17">
+        <v>1114</v>
+      </c>
+      <c r="J7" s="17">
+        <v>1076</v>
+      </c>
+      <c r="K7" s="17">
+        <v>1142</v>
+      </c>
+      <c r="L7" s="17">
+        <v>1239</v>
+      </c>
+      <c r="M7" s="17">
+        <v>1581</v>
+      </c>
+      <c r="N7" s="12">
+        <v>1408</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1155</v>
+      </c>
+      <c r="D8" s="12">
+        <v>975</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1119</v>
+      </c>
+      <c r="F8" s="17">
+        <v>1090</v>
+      </c>
+      <c r="G8" s="17">
+        <v>1303</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1314</v>
+      </c>
+      <c r="I8" s="17">
+        <v>1176</v>
+      </c>
+      <c r="J8" s="17">
+        <v>1117</v>
+      </c>
+      <c r="K8" s="17">
+        <v>1330</v>
+      </c>
+      <c r="L8" s="17">
+        <v>1276</v>
+      </c>
+      <c r="M8" s="17">
+        <v>1589</v>
+      </c>
+      <c r="N8" s="12">
+        <v>1583</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="26.25">
+      <c r="A9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2409</v>
+      </c>
+      <c r="D9" s="12">
+        <v>2147</v>
+      </c>
+      <c r="E9" s="12">
+        <v>2018</v>
+      </c>
+      <c r="F9" s="17">
+        <v>2039</v>
+      </c>
+      <c r="G9" s="23">
+        <v>2199</v>
+      </c>
+      <c r="H9" s="17">
+        <v>2039</v>
+      </c>
+      <c r="I9" s="17">
+        <v>2118</v>
+      </c>
+      <c r="J9" s="24">
+        <v>2314</v>
+      </c>
+      <c r="K9" s="23">
+        <v>2352</v>
+      </c>
+      <c r="L9" s="24">
+        <v>2247</v>
+      </c>
+      <c r="M9" s="24">
+        <v>2288</v>
+      </c>
+      <c r="N9" s="12">
+        <f>N10+N11</f>
+        <v>2532</v>
+      </c>
+      <c r="O9" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="12">
+        <v>1164</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1023</v>
+      </c>
+      <c r="E10" s="12">
+        <v>987</v>
+      </c>
+      <c r="F10" s="17">
+        <v>937</v>
+      </c>
+      <c r="G10" s="17">
+        <v>1073</v>
+      </c>
+      <c r="H10" s="17">
+        <v>973</v>
+      </c>
+      <c r="I10" s="17">
+        <v>971</v>
+      </c>
+      <c r="J10" s="17">
+        <v>1143</v>
+      </c>
+      <c r="K10" s="17">
+        <v>1139</v>
+      </c>
+      <c r="L10" s="17">
+        <v>1096</v>
+      </c>
+      <c r="M10" s="17">
+        <v>1099</v>
+      </c>
+      <c r="N10" s="12">
+        <v>1167</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="12">
+        <v>1245</v>
+      </c>
+      <c r="D11" s="12">
+        <v>1124</v>
+      </c>
+      <c r="E11" s="12">
+        <v>1031</v>
+      </c>
+      <c r="F11" s="17">
+        <v>1102</v>
+      </c>
+      <c r="G11" s="17">
+        <v>1126</v>
+      </c>
+      <c r="H11" s="17">
+        <v>1066</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1147</v>
+      </c>
+      <c r="J11" s="17">
+        <v>1171</v>
+      </c>
+      <c r="K11" s="17">
+        <v>1213</v>
+      </c>
+      <c r="L11" s="17">
+        <v>1151</v>
+      </c>
+      <c r="M11" s="17">
+        <v>1189</v>
+      </c>
+      <c r="N11" s="12">
+        <v>1365</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="26.25">
+      <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="14">
-        <v>1987</v>
-      </c>
-      <c r="D6" s="14">
-        <v>1576</v>
-      </c>
-      <c r="E6" s="14">
-        <v>1921</v>
-      </c>
-      <c r="F6" s="14">
-        <v>2148</v>
-      </c>
-      <c r="G6" s="14">
-        <v>2069</v>
-      </c>
-      <c r="H6" s="14">
-        <v>2046</v>
-      </c>
-      <c r="I6" s="14">
-        <v>2045</v>
-      </c>
-      <c r="J6" s="14">
+      <c r="B12" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="12">
+        <v>1977</v>
+      </c>
+      <c r="D12" s="12">
+        <v>2378</v>
+      </c>
+      <c r="E12" s="12">
+        <v>1902</v>
+      </c>
+      <c r="F12" s="23">
+        <v>2134</v>
+      </c>
+      <c r="G12" s="24">
+        <v>2076</v>
+      </c>
+      <c r="H12" s="17">
+        <v>1993</v>
+      </c>
+      <c r="I12" s="17">
+        <v>2065</v>
+      </c>
+      <c r="J12" s="23">
         <v>2022</v>
       </c>
-      <c r="K6" s="14">
-        <v>1979</v>
-      </c>
-      <c r="L6" s="14">
+      <c r="K12" s="23">
+        <v>1972</v>
+      </c>
+      <c r="L12" s="24">
         <v>1975</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M12" s="24">
         <v>2407</v>
       </c>
-      <c r="N6" s="14">
+      <c r="N12" s="12">
         <v>2394</v>
       </c>
-      <c r="O6" s="13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="21" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="O12" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="21" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="11">
-        <v>1053</v>
-      </c>
-      <c r="D7" s="11">
-        <v>820</v>
-      </c>
-      <c r="E7" s="11">
-        <v>958</v>
-      </c>
-      <c r="F7" s="11">
-        <v>1058</v>
-      </c>
-      <c r="G7" s="11">
-        <v>987</v>
-      </c>
-      <c r="H7" s="11">
-        <v>991</v>
-      </c>
-      <c r="I7" s="11">
-        <v>962</v>
-      </c>
-      <c r="J7" s="11">
+      <c r="B13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="12">
+        <v>1083</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1232</v>
+      </c>
+      <c r="E13" s="12">
+        <v>952</v>
+      </c>
+      <c r="F13" s="17">
+        <v>1048</v>
+      </c>
+      <c r="G13" s="17">
+        <v>981</v>
+      </c>
+      <c r="H13" s="17">
+        <v>969</v>
+      </c>
+      <c r="I13" s="17">
+        <v>971</v>
+      </c>
+      <c r="J13" s="17">
         <v>1008</v>
       </c>
-      <c r="K7" s="11">
-        <v>972</v>
-      </c>
-      <c r="L7" s="11">
+      <c r="K13" s="17">
+        <v>967</v>
+      </c>
+      <c r="L13" s="17">
         <v>919</v>
       </c>
-      <c r="M7" s="11">
+      <c r="M13" s="17">
         <v>1201</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N13" s="12">
         <v>1178</v>
       </c>
-      <c r="O7" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="21" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="O13" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="21" customHeight="1">
+      <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="11">
-        <v>934</v>
-      </c>
-      <c r="D8" s="11">
-        <v>756</v>
-      </c>
-      <c r="E8" s="11">
-        <v>963</v>
-      </c>
-      <c r="F8" s="11">
-        <v>1090</v>
-      </c>
-      <c r="G8" s="11">
-        <v>1082</v>
-      </c>
-      <c r="H8" s="11">
-        <v>1055</v>
-      </c>
-      <c r="I8" s="11">
-        <v>1083</v>
-      </c>
-      <c r="J8" s="11">
+      <c r="B14" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="12">
+        <v>894</v>
+      </c>
+      <c r="D14" s="12">
+        <v>1146</v>
+      </c>
+      <c r="E14" s="12">
+        <v>950</v>
+      </c>
+      <c r="F14" s="17">
+        <v>1086</v>
+      </c>
+      <c r="G14" s="17">
+        <v>1095</v>
+      </c>
+      <c r="H14" s="17">
+        <v>1024</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1094</v>
+      </c>
+      <c r="J14" s="17">
         <v>1014</v>
       </c>
-      <c r="K8" s="11">
-        <v>1007</v>
-      </c>
-      <c r="L8" s="11">
-        <v>1055</v>
-      </c>
-      <c r="M8" s="11">
+      <c r="K14" s="17">
+        <v>1005</v>
+      </c>
+      <c r="L14" s="17">
+        <v>1056</v>
+      </c>
+      <c r="M14" s="17">
         <v>1206</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N14" s="12">
         <v>1216</v>
       </c>
-      <c r="O8" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="26.25">
-      <c r="A9" s="16" t="s">
+      <c r="O14" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="26.25">
+      <c r="A15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="25">
-        <v>12.544389905143705</v>
-      </c>
-      <c r="D9" s="25">
-        <v>10.14904804376455</v>
-      </c>
-      <c r="E9" s="25">
-        <v>12.609040964614607</v>
-      </c>
-      <c r="F9" s="25">
-        <v>14.311556181852707</v>
-      </c>
-      <c r="G9" s="25">
-        <v>13.954507899573406</v>
-      </c>
-      <c r="H9" s="25">
-        <v>13.979706877113868</v>
-      </c>
-      <c r="I9" s="25">
-        <v>14.193060322241463</v>
-      </c>
-      <c r="J9" s="25">
-        <v>14.252585131353573</v>
-      </c>
-      <c r="K9" s="25">
-        <v>14.1786553562217</v>
-      </c>
-      <c r="L9" s="25">
-        <v>14.448118452624803</v>
-      </c>
-      <c r="M9" s="25">
-        <v>17.857474061406858</v>
-      </c>
-      <c r="N9" s="25">
+      <c r="B15" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="25">
+        <v>1.4360645391874964</v>
+      </c>
+      <c r="D15" s="25">
+        <v>1.5687458566074395</v>
+      </c>
+      <c r="E15" s="25">
+        <v>1.2192806244315852</v>
+      </c>
+      <c r="F15" s="25">
+        <v>1.4568263442763922</v>
+      </c>
+      <c r="G15" s="25">
+        <v>1.4212018721601587</v>
+      </c>
+      <c r="H15" s="25">
+        <v>1.2423265514333603</v>
+      </c>
+      <c r="I15" s="25">
+        <v>1.3110686619346017</v>
+      </c>
+      <c r="J15" s="25">
+        <v>1.3111136585086263</v>
+      </c>
+      <c r="K15" s="25">
+        <v>1.0900099490840991</v>
+      </c>
+      <c r="L15" s="25">
+        <v>1.3650914945155224</v>
+      </c>
+      <c r="M15" s="25">
+        <v>1.4183697849311485</v>
+      </c>
+      <c r="N15" s="25">
         <v>18.43552187774338</v>
       </c>
-      <c r="O9" s="15" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="21" customHeight="1">
-      <c r="A10" s="10" t="s">
+      <c r="O15" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="21" customHeight="1">
+      <c r="A16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="11">
+      <c r="B16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="12">
         <v>2201</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I16" s="12">
         <v>2341</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J16" s="12">
         <v>2485</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K16" s="12">
         <v>2355</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L16" s="12">
         <v>2345</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M16" s="12">
         <v>2353</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N16" s="12">
         <v>2422</v>
       </c>
-      <c r="O10" s="15">
+      <c r="O16" s="13">
         <v>2505</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="21" customHeight="1">
-      <c r="A11" s="10" t="s">
+    <row r="17" spans="1:15" ht="21" customHeight="1">
+      <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="11">
+      <c r="B17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="12">
         <v>1989</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I17" s="12">
         <v>2123</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J17" s="12">
         <v>2245</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K17" s="12">
         <v>2129</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L17" s="12">
         <v>2123</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M17" s="12">
         <v>2116</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N17" s="12">
         <v>2166</v>
       </c>
-      <c r="O11" s="15">
+      <c r="O17" s="13">
         <v>2225</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="21" customHeight="1">
-      <c r="A12" s="17" t="s">
+    <row r="18" spans="1:15" ht="21" customHeight="1">
+      <c r="A18" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="19">
+      <c r="B18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="19">
         <v>212</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I18" s="19">
         <v>218</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J18" s="19">
         <v>240</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K18" s="19">
         <v>226</v>
       </c>
-      <c r="L12" s="19">
+      <c r="L18" s="19">
         <v>222</v>
       </c>
-      <c r="M12" s="19">
+      <c r="M18" s="19">
         <v>237</v>
       </c>
-      <c r="N12" s="19">
+      <c r="N18" s="19">
         <v>256</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O18" s="18">
         <v>280</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="23" t="s">
+    <row r="19" spans="1:15">
+      <c r="A19" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:18" ht="15" customHeight="1">
-      <c r="A14" s="24" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" ht="15" customHeight="1">
+      <c r="A20" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:M2"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/municipal/ENG/Education/General Educational Institution/Imereti/C. Kutaisi.xlsx
+++ b/municipal/ENG/Education/General Educational Institution/Imereti/C. Kutaisi.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\General Educational Institution\Imereti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA6FAF43-6A53-4E96-B8F0-A662E24BB501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA0C011-A237-4559-9084-40A6F974026F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="C. Kutaisi" sheetId="1" r:id="rId1"/>
+    <sheet name="C.Kutaisi" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="32">
   <si>
     <t>Public and Private General Education Schools in Kutaisi municipality</t>
   </si>
@@ -77,9 +77,6 @@
   </si>
   <si>
     <t>Number of secondary school graduates  (persons)</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t xml:space="preserve">    Of which:   Girl</t>
@@ -131,6 +128,26 @@
   <si>
     <t>number of graduates of the basic level (persons)</t>
   </si>
+  <si>
+    <r>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> „ ... „ - Data is confidential or unavailable.</t>
+    </r>
+  </si>
+  <si>
+    <t>2024/2025</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
 </sst>
 </file>
 
@@ -140,7 +157,7 @@
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +225,20 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -279,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -327,6 +358,12 @@
     <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -336,13 +373,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,7 +653,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R20"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -626,8 +661,8 @@
   <cols>
     <col min="1" max="1" width="29.85546875" style="1" customWidth="1"/>
     <col min="2" max="13" width="10.7109375" style="2" customWidth="1"/>
-    <col min="14" max="15" width="10.7109375" style="3" customWidth="1"/>
-    <col min="16" max="18" width="12" style="3" customWidth="1"/>
+    <col min="14" max="16" width="10.7109375" style="3" customWidth="1"/>
+    <col min="17" max="18" width="12" style="3" customWidth="1"/>
     <col min="19" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -649,21 +684,21 @@
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:18" ht="15" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
@@ -714,6 +749,9 @@
       <c r="O3" s="16" t="s">
         <v>15</v>
       </c>
+      <c r="P3" s="16" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="21" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -761,6 +799,9 @@
       <c r="O4" s="11">
         <v>48</v>
       </c>
+      <c r="P4" s="11">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="1:18" ht="21" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -808,13 +849,16 @@
       <c r="O5" s="12">
         <v>33612</v>
       </c>
+      <c r="P5" s="12">
+        <v>33282</v>
+      </c>
     </row>
     <row r="6" spans="1:18" ht="26.25">
       <c r="A6" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C6" s="12">
         <v>2122</v>
@@ -825,10 +869,10 @@
       <c r="E6" s="12">
         <v>2114</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="20">
         <v>2001</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="21">
         <v>2532</v>
       </c>
       <c r="H6" s="17">
@@ -837,32 +881,35 @@
       <c r="I6" s="17">
         <v>2290</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="20">
         <v>2193</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="20">
         <v>2472</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="21">
         <v>2515</v>
       </c>
-      <c r="M6" s="24">
+      <c r="M6" s="21">
         <v>3170</v>
       </c>
       <c r="N6" s="12">
         <f>N7+N8</f>
         <v>2991</v>
       </c>
-      <c r="O6" s="13" t="s">
-        <v>19</v>
+      <c r="O6" s="12">
+        <v>3071</v>
+      </c>
+      <c r="P6" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C7" s="12">
         <v>967</v>
@@ -900,16 +947,19 @@
       <c r="N7" s="12">
         <v>1408</v>
       </c>
-      <c r="O7" s="13" t="s">
-        <v>19</v>
+      <c r="O7" s="12">
+        <v>1497</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C8" s="12">
         <v>1155</v>
@@ -947,16 +997,19 @@
       <c r="N8" s="12">
         <v>1583</v>
       </c>
-      <c r="O8" s="13" t="s">
-        <v>19</v>
+      <c r="O8" s="12">
+        <v>1574</v>
+      </c>
+      <c r="P8" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="26.25">
       <c r="A9" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C9" s="12">
         <v>2409</v>
@@ -970,7 +1023,7 @@
       <c r="F9" s="17">
         <v>2039</v>
       </c>
-      <c r="G9" s="23">
+      <c r="G9" s="20">
         <v>2199</v>
       </c>
       <c r="H9" s="17">
@@ -979,32 +1032,35 @@
       <c r="I9" s="17">
         <v>2118</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="21">
         <v>2314</v>
       </c>
-      <c r="K9" s="23">
+      <c r="K9" s="20">
         <v>2352</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="21">
         <v>2247</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="21">
         <v>2288</v>
       </c>
       <c r="N9" s="12">
         <f>N10+N11</f>
         <v>2532</v>
       </c>
-      <c r="O9" s="13" t="s">
-        <v>19</v>
+      <c r="O9" s="12">
+        <v>2577</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C10" s="12">
         <v>1164</v>
@@ -1042,16 +1098,19 @@
       <c r="N10" s="12">
         <v>1167</v>
       </c>
-      <c r="O10" s="13" t="s">
-        <v>19</v>
+      <c r="O10" s="12">
+        <v>1231</v>
+      </c>
+      <c r="P10" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C11" s="12">
         <v>1245</v>
@@ -1089,8 +1148,11 @@
       <c r="N11" s="12">
         <v>1365</v>
       </c>
-      <c r="O11" s="13" t="s">
-        <v>19</v>
+      <c r="O11" s="12">
+        <v>1346</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="26.25">
@@ -1098,7 +1160,7 @@
         <v>18</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C12" s="12">
         <v>1977</v>
@@ -1109,10 +1171,10 @@
       <c r="E12" s="12">
         <v>1902</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="20">
         <v>2134</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="21">
         <v>2076</v>
       </c>
       <c r="H12" s="17">
@@ -1121,31 +1183,34 @@
       <c r="I12" s="17">
         <v>2065</v>
       </c>
-      <c r="J12" s="23">
+      <c r="J12" s="20">
         <v>2022</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="20">
         <v>1972</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="21">
         <v>1975</v>
       </c>
-      <c r="M12" s="24">
+      <c r="M12" s="21">
         <v>2407</v>
       </c>
       <c r="N12" s="12">
         <v>2394</v>
       </c>
-      <c r="O12" s="13" t="s">
-        <v>19</v>
+      <c r="O12" s="12">
+        <v>2195</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="21" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C13" s="12">
         <v>1083</v>
@@ -1183,16 +1248,19 @@
       <c r="N13" s="12">
         <v>1178</v>
       </c>
-      <c r="O13" s="13" t="s">
-        <v>19</v>
+      <c r="O13" s="12">
+        <v>1088</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="21" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C14" s="12">
         <v>894</v>
@@ -1230,78 +1298,84 @@
       <c r="N14" s="12">
         <v>1216</v>
       </c>
-      <c r="O14" s="13" t="s">
-        <v>19</v>
+      <c r="O14" s="12">
+        <v>1107</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="26.25">
       <c r="A15" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="25">
+        <v>31</v>
+      </c>
+      <c r="C15" s="26">
         <v>1.4360645391874964</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="26">
         <v>1.5687458566074395</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="26">
         <v>1.2192806244315852</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="26">
         <v>1.4568263442763922</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="26">
         <v>1.4212018721601587</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="26">
         <v>1.2423265514333603</v>
       </c>
-      <c r="I15" s="25">
+      <c r="I15" s="26">
         <v>1.3110686619346017</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="26">
         <v>1.3111136585086263</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="26">
         <v>1.0900099490840991</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="26">
         <v>1.3650914945155224</v>
       </c>
-      <c r="M15" s="25">
+      <c r="M15" s="26">
         <v>1.4183697849311485</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15" s="26">
         <v>18.43552187774338</v>
       </c>
-      <c r="O15" s="13" t="s">
-        <v>19</v>
+      <c r="O15" s="27">
+        <v>18.703125</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="21" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H16" s="12">
         <v>2201</v>
@@ -1327,28 +1401,31 @@
       <c r="O16" s="13">
         <v>2505</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" ht="21" customHeight="1">
+      <c r="P16" s="13">
+        <v>2502</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="21" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H17" s="12">
         <v>1989</v>
@@ -1374,28 +1451,31 @@
       <c r="O17" s="13">
         <v>2225</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" ht="21" customHeight="1">
+      <c r="P17" s="13">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="21" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H18" s="19">
         <v>212</v>
@@ -1421,24 +1501,32 @@
       <c r="O18" s="18">
         <v>280</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
+      <c r="P18" s="18">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:15" ht="15" customHeight="1">
-      <c r="A20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
+    <row r="20" spans="1:16" ht="15" customHeight="1">
+      <c r="A20" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="25" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1447,6 +1535,6 @@
     <mergeCell ref="A20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>